--- a/data/trans_orig/P16A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F6846F-EF76-4D7D-9143-3812CE6ED0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD03BA0-3EC8-4A09-B019-871157D3EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E1646F1-B917-477C-A884-D52B93123E54}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6FC3484-562D-49A9-ACB0-937F7B7A9CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="466">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1381 +80,1363 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>98,32%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8577DD74-817F-48F1-A75F-D7ABA57E8195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7B2120-85D5-48D0-90F1-7FA8F0FD7232}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2458,7 +2440,7 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>69</v>
@@ -2512,7 +2494,7 @@
         <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>480</v>
@@ -2768,10 +2750,10 @@
         <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -2780,13 +2762,13 @@
         <v>48847</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -2795,13 +2777,13 @@
         <v>77312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2798,13 @@
         <v>474000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>613</v>
@@ -2831,13 +2813,13 @@
         <v>627995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1107</v>
@@ -2846,13 +2828,13 @@
         <v>1101996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2902,13 @@
         <v>86595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -2935,13 +2917,13 @@
         <v>121472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -2950,13 +2932,13 @@
         <v>208067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,16 +2950,16 @@
         <v>3128</v>
       </c>
       <c r="D23" s="7">
-        <v>3188930</v>
+        <v>3188931</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>3175</v>
@@ -2986,28 +2968,28 @@
         <v>3257726</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>6303</v>
       </c>
       <c r="N23" s="7">
-        <v>6446655</v>
+        <v>6446656</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3001,7 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3049,7 +3031,7 @@
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3063,7 +3045,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1F71E-9C3A-4148-AECF-BC513947105C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551562D6-A1E0-470C-9264-B5BEFEE5407F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3102,7 +3084,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,13 +3191,13 @@
         <v>6566</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3224,13 +3206,13 @@
         <v>3881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3239,13 +3221,13 @@
         <v>10447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3242,13 @@
         <v>446539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3275,13 +3257,13 @@
         <v>425458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M5" s="7">
         <v>855</v>
@@ -3290,13 +3272,13 @@
         <v>871998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3346,13 @@
         <v>15157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3379,13 +3361,13 @@
         <v>12447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3394,13 +3376,13 @@
         <v>27604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3397,13 @@
         <v>671081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -3430,13 +3412,13 @@
         <v>596767</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>1211</v>
@@ -3445,13 +3427,13 @@
         <v>1267847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,10 +3504,10 @@
         <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3534,13 +3516,13 @@
         <v>22147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3549,13 +3531,13 @@
         <v>39845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,10 +3555,10 @@
         <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3585,13 +3567,13 @@
         <v>683788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -3600,13 +3582,13 @@
         <v>1346144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3656,13 @@
         <v>31739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3689,13 +3671,13 @@
         <v>37718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -3704,13 +3686,13 @@
         <v>69457</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3707,13 @@
         <v>582878</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -3740,13 +3722,13 @@
         <v>576354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1026</v>
@@ -3755,13 +3737,13 @@
         <v>1159232</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,10 +3814,10 @@
         <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3844,13 +3826,13 @@
         <v>33268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3859,13 +3841,13 @@
         <v>47941</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3862,13 @@
         <v>413671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>376</v>
@@ -3895,13 +3877,13 @@
         <v>414532</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>754</v>
@@ -3910,13 +3892,13 @@
         <v>828203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3966,13 @@
         <v>54431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -3999,13 +3981,13 @@
         <v>80634</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4014,13 +3996,13 @@
         <v>135065</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4017,13 @@
         <v>499037</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>616</v>
@@ -4050,13 +4032,13 @@
         <v>660115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>1070</v>
@@ -4065,13 +4047,13 @@
         <v>1159151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4121,13 @@
         <v>140263</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -4154,13 +4136,13 @@
         <v>190095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>297</v>
@@ -4169,13 +4151,13 @@
         <v>330359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>239</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4172,13 @@
         <v>3275561</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>3114</v>
@@ -4205,13 +4187,13 @@
         <v>3357015</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>6191</v>
@@ -4220,13 +4202,13 @@
         <v>6632575</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,7 +4264,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9D9DC3-0112-40EE-91E4-F2D669042410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A1C7F-6EEE-46FE-9EBC-4BF355B197FD}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,7 +4303,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4428,13 +4410,13 @@
         <v>2941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4443,13 +4425,13 @@
         <v>4697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4458,13 +4440,13 @@
         <v>7638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,10 +4461,10 @@
         <v>416522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4494,13 +4476,13 @@
         <v>391058</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>791</v>
@@ -4509,13 +4491,13 @@
         <v>807580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4565,13 @@
         <v>10023</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4598,13 +4580,13 @@
         <v>9138</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4613,13 +4595,13 @@
         <v>19160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4616,13 @@
         <v>580473</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -4649,13 +4631,13 @@
         <v>554406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>1128</v>
@@ -4664,13 +4646,13 @@
         <v>1134880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4720,13 @@
         <v>12239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4756,10 +4738,10 @@
         <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4768,13 +4750,13 @@
         <v>23075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4771,13 @@
         <v>656858</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>655</v>
@@ -4807,10 +4789,10 @@
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -4819,13 +4801,13 @@
         <v>1307408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4875,13 @@
         <v>14162</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4908,13 +4890,13 @@
         <v>11824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4923,13 +4905,13 @@
         <v>25986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4926,13 @@
         <v>631886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4959,28 +4941,28 @@
         <v>637253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="M14" s="7">
         <v>1161</v>
       </c>
       <c r="N14" s="7">
-        <v>1269139</v>
+        <v>1269140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5004,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5048,13 +5030,13 @@
         <v>25065</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5063,13 +5045,13 @@
         <v>39482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -5078,13 +5060,13 @@
         <v>64546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5081,13 @@
         <v>452853</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
         <v>398</v>
@@ -5114,13 +5096,13 @@
         <v>457367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>801</v>
@@ -5129,13 +5111,13 @@
         <v>910221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5185,13 @@
         <v>35340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -5218,13 +5200,13 @@
         <v>67761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -5233,13 +5215,13 @@
         <v>103101</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5236,13 @@
         <v>555988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -5269,13 +5251,13 @@
         <v>710170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1188</v>
@@ -5284,13 +5266,13 @@
         <v>1266158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5340,13 @@
         <v>99770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -5373,13 +5355,13 @@
         <v>143737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>218</v>
@@ -5388,13 +5370,13 @@
         <v>243507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5391,13 @@
         <v>3294580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H23" s="7">
         <v>3213</v>
@@ -5424,13 +5406,13 @@
         <v>3400805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M23" s="7">
         <v>6351</v>
@@ -5439,13 +5421,13 @@
         <v>6695385</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,7 +5483,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3590A549-59E5-478F-8929-5BE988975056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B960EC-B122-4E02-B93A-33624BC3F6B8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5540,7 +5522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5647,13 +5629,13 @@
         <v>3133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5662,13 +5644,13 @@
         <v>2035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5677,13 +5659,13 @@
         <v>5168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,10 +5680,10 @@
         <v>374546</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5713,10 +5695,10 @@
         <v>352922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5728,13 +5710,13 @@
         <v>727468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5784,13 @@
         <v>5524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5817,13 +5799,13 @@
         <v>6073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5832,13 +5814,13 @@
         <v>11597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5835,13 @@
         <v>422872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5868,13 +5850,13 @@
         <v>492504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M8" s="7">
         <v>750</v>
@@ -5883,13 +5865,13 @@
         <v>915376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5939,13 @@
         <v>10201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>393</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5972,13 +5954,13 @@
         <v>16807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5987,13 +5969,13 @@
         <v>27008</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>36</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +5990,13 @@
         <v>547051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>396</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -6023,13 +6005,13 @@
         <v>566669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="M11" s="7">
         <v>1356</v>
@@ -6038,7 +6020,7 @@
         <v>1113719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>398</v>
@@ -6115,10 +6097,10 @@
         <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -6127,13 +6109,13 @@
         <v>34549</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -6142,13 +6124,13 @@
         <v>75097</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6145,13 @@
         <v>683442</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>410</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>1084</v>
@@ -6178,28 +6160,28 @@
         <v>712712</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M14" s="7">
         <v>1707</v>
       </c>
       <c r="N14" s="7">
-        <v>1396155</v>
+        <v>1396154</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6223,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6267,13 +6249,13 @@
         <v>49483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -6282,13 +6264,13 @@
         <v>60258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -6297,13 +6279,13 @@
         <v>109741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6300,13 @@
         <v>549603</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>890</v>
@@ -6333,13 +6315,13 @@
         <v>533318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>1493</v>
@@ -6348,13 +6330,13 @@
         <v>1082921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,16 +6401,16 @@
         <v>176</v>
       </c>
       <c r="D19" s="7">
-        <v>108220</v>
+        <v>108221</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
         <v>395</v>
@@ -6437,13 +6419,13 @@
         <v>191971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -6452,13 +6434,13 @@
         <v>300191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6455,13 @@
         <v>589534</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H20" s="7">
         <v>1311</v>
@@ -6488,13 +6470,13 @@
         <v>833400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>2163</v>
@@ -6503,13 +6485,13 @@
         <v>1422935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6503,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6577,13 +6559,13 @@
         <v>217109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H22" s="7">
         <v>597</v>
@@ -6592,13 +6574,13 @@
         <v>311693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M22" s="7">
         <v>890</v>
@@ -6607,13 +6589,13 @@
         <v>528802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6628,13 +6610,13 @@
         <v>3167049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H23" s="7">
         <v>4763</v>
@@ -6643,28 +6625,28 @@
         <v>3491525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M23" s="7">
         <v>7845</v>
       </c>
       <c r="N23" s="7">
-        <v>6658573</v>
+        <v>6658574</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,7 +6688,7 @@
         <v>8735</v>
       </c>
       <c r="N24" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6720,7 +6702,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD03BA0-3EC8-4A09-B019-871157D3EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF133E0C-DB37-44D7-BE9B-9573197FB871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6FC3484-562D-49A9-ACB0-937F7B7A9CFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60C22780-30D4-4161-99B0-CEA5FE222C87}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="458">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,1245 +80,1227 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,71%</t>
-  </si>
-  <si>
     <t>1,81%</t>
   </si>
   <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>97,63%</t>
   </si>
   <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
     <t>91,51%</t>
   </si>
   <si>
@@ -1403,9 +1385,6 @@
     <t>8,97%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
     <t>6,81%</t>
   </si>
   <si>
@@ -1428,9 +1407,6 @@
   </si>
   <si>
     <t>92,68%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
   </si>
   <si>
     <t>92,12%</t>
@@ -1848,7 +1824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7B2120-85D5-48D0-90F1-7FA8F0FD7232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D180D4-23BC-47D3-8417-F1771DCD8AE1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1987,13 +1963,13 @@
         <v>8479</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2002,19 +1978,19 @@
         <v>10937</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>497</v>
@@ -2023,13 +1999,13 @@
         <v>491606</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>480</v>
@@ -2038,13 +2014,13 @@
         <v>459010</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>977</v>
@@ -2053,13 +2029,13 @@
         <v>950616</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2050,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2089,13 +2065,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>988</v>
@@ -2104,18 +2080,18 @@
         <v>961553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2127,13 +2103,13 @@
         <v>12067</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2142,13 +2118,13 @@
         <v>7153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -2157,19 +2133,19 @@
         <v>19220</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>691</v>
@@ -2178,13 +2154,13 @@
         <v>723422</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>584</v>
@@ -2193,13 +2169,13 @@
         <v>618341</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>1275</v>
@@ -2208,13 +2184,13 @@
         <v>1341762</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,13 +2205,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>591</v>
@@ -2244,13 +2220,13 @@
         <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1294</v>
@@ -2259,18 +2235,18 @@
         <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2282,13 +2258,13 @@
         <v>15057</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2297,13 +2273,13 @@
         <v>12771</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2312,19 +2288,19 @@
         <v>27828</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>598</v>
@@ -2333,13 +2309,13 @@
         <v>622592</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>645</v>
@@ -2348,13 +2324,13 @@
         <v>676973</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1243</v>
@@ -2363,13 +2339,13 @@
         <v>1299566</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2360,13 @@
         <v>637649</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -2399,13 +2375,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1270</v>
@@ -2414,18 +2390,18 @@
         <v>1327394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2437,13 +2413,13 @@
         <v>13514</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2452,13 +2428,13 @@
         <v>20904</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2467,19 +2443,19 @@
         <v>34418</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>472</v>
@@ -2488,13 +2464,13 @@
         <v>505633</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>480</v>
@@ -2503,13 +2479,13 @@
         <v>494738</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>952</v>
@@ -2518,13 +2494,13 @@
         <v>1000371</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2515,13 @@
         <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2554,13 +2530,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>986</v>
@@ -2569,18 +2545,18 @@
         <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2568,13 @@
         <v>15035</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -2607,13 +2583,13 @@
         <v>23317</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -2622,19 +2598,19 @@
         <v>38352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>376</v>
@@ -2643,13 +2619,13 @@
         <v>371675</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>373</v>
@@ -2658,13 +2634,13 @@
         <v>380669</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -2673,13 +2649,13 @@
         <v>752344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2670,13 @@
         <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2709,13 +2685,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>788</v>
@@ -2724,18 +2700,18 @@
         <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2747,13 +2723,13 @@
         <v>28466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -2762,13 +2738,13 @@
         <v>48847</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -2777,19 +2753,19 @@
         <v>77312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>494</v>
@@ -2798,13 +2774,13 @@
         <v>474000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>613</v>
@@ -2813,13 +2789,13 @@
         <v>627995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>1107</v>
@@ -2828,13 +2804,13 @@
         <v>1101996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2825,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2864,13 +2840,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2879,13 +2855,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2878,13 @@
         <v>86595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -2917,13 +2893,13 @@
         <v>121472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -2932,34 +2908,34 @@
         <v>208067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3128</v>
       </c>
       <c r="D23" s="7">
-        <v>3188931</v>
+        <v>3188930</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
         <v>3175</v>
@@ -2968,13 +2944,13 @@
         <v>3257726</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>6303</v>
@@ -2983,13 +2959,13 @@
         <v>6446656</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,16 +2977,16 @@
         <v>3213</v>
       </c>
       <c r="D24" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3297</v>
@@ -3019,13 +2995,13 @@
         <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6510</v>
@@ -3034,18 +3010,18 @@
         <v>6654723</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3067,7 +3043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{551562D6-A1E0-470C-9264-B5BEFEE5407F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83748AE4-04ED-4511-BC83-BCE0BF0F364C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3084,7 +3060,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3191,13 +3167,13 @@
         <v>6566</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3206,13 +3182,13 @@
         <v>3881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3221,19 +3197,19 @@
         <v>10447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>439</v>
@@ -3242,13 +3218,13 @@
         <v>446539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3257,13 +3233,13 @@
         <v>425458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M5" s="7">
         <v>855</v>
@@ -3272,13 +3248,13 @@
         <v>871998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3269,13 @@
         <v>453105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3308,13 +3284,13 @@
         <v>429339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -3323,18 +3299,18 @@
         <v>882445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3346,13 +3322,13 @@
         <v>15157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3361,13 +3337,13 @@
         <v>12447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3376,19 +3352,19 @@
         <v>27604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>652</v>
@@ -3397,13 +3373,13 @@
         <v>671081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -3412,13 +3388,13 @@
         <v>596767</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>1211</v>
@@ -3427,13 +3403,13 @@
         <v>1267847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3424,13 @@
         <v>686238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>570</v>
@@ -3463,13 +3439,13 @@
         <v>609214</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -3478,18 +3454,18 @@
         <v>1295451</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3501,13 +3477,13 @@
         <v>17698</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3516,13 +3492,13 @@
         <v>22147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3531,19 +3507,19 @@
         <v>39845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>633</v>
@@ -3552,13 +3528,13 @@
         <v>662356</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3567,13 +3543,13 @@
         <v>683788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -3582,13 +3558,13 @@
         <v>1346144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3579,13 @@
         <v>680054</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>663</v>
@@ -3618,13 +3594,13 @@
         <v>705935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1312</v>
@@ -3633,18 +3609,18 @@
         <v>1385989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3656,13 +3632,13 @@
         <v>31739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3671,13 +3647,13 @@
         <v>37718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -3686,19 +3662,19 @@
         <v>69457</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>521</v>
@@ -3707,13 +3683,13 @@
         <v>582878</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -3722,13 +3698,13 @@
         <v>576354</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>1026</v>
@@ -3737,13 +3713,13 @@
         <v>1159232</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3734,13 @@
         <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>537</v>
@@ -3773,13 +3749,13 @@
         <v>614072</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1085</v>
@@ -3788,18 +3764,18 @@
         <v>1228689</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3814,10 +3790,10 @@
         <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>200</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3826,13 +3802,13 @@
         <v>33268</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3841,19 +3817,19 @@
         <v>47941</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>378</v>
@@ -3862,13 +3838,13 @@
         <v>413671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>376</v>
@@ -3877,13 +3853,13 @@
         <v>414532</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>754</v>
@@ -3892,13 +3868,13 @@
         <v>828203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3889,13 @@
         <v>428344</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -3928,13 +3904,13 @@
         <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -3943,18 +3919,18 @@
         <v>876144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3966,13 +3942,13 @@
         <v>54431</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -3981,13 +3957,13 @@
         <v>80634</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -3996,19 +3972,19 @@
         <v>135065</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>454</v>
@@ -4017,13 +3993,13 @@
         <v>499037</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7">
         <v>616</v>
@@ -4032,13 +4008,13 @@
         <v>660115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>1070</v>
@@ -4047,13 +4023,13 @@
         <v>1159151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4044,13 @@
         <v>553468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>692</v>
@@ -4083,13 +4059,13 @@
         <v>740749</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1192</v>
@@ -4098,13 +4074,13 @@
         <v>1294216</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4097,13 @@
         <v>140263</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -4136,13 +4112,13 @@
         <v>190095</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M22" s="7">
         <v>297</v>
@@ -4151,19 +4127,19 @@
         <v>330359</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3077</v>
@@ -4172,13 +4148,13 @@
         <v>3275561</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>3114</v>
@@ -4187,13 +4163,13 @@
         <v>3357015</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>6191</v>
@@ -4202,13 +4178,13 @@
         <v>6632575</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4199,13 @@
         <v>3415824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3288</v>
@@ -4238,13 +4214,13 @@
         <v>3547110</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6488</v>
@@ -4253,18 +4229,18 @@
         <v>6962934</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4286,7 +4262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A1C7F-6EEE-46FE-9EBC-4BF355B197FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CD4C65-8B3F-47E3-BB5E-18158BA52DF1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4303,7 +4279,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4410,13 +4386,13 @@
         <v>2941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4425,13 +4401,13 @@
         <v>4697</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4440,19 +4416,19 @@
         <v>7638</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>391</v>
@@ -4461,13 +4437,13 @@
         <v>416522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -4476,13 +4452,13 @@
         <v>391058</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>791</v>
@@ -4491,13 +4467,13 @@
         <v>807580</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4488,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>404</v>
@@ -4527,13 +4503,13 @@
         <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -4542,18 +4518,18 @@
         <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4565,13 +4541,13 @@
         <v>10023</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4580,13 +4556,13 @@
         <v>9138</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4595,19 +4571,19 @@
         <v>19160</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>558</v>
@@ -4616,13 +4592,13 @@
         <v>580473</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -4631,13 +4607,13 @@
         <v>554406</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>1128</v>
@@ -4646,13 +4622,13 @@
         <v>1134880</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4643,13 @@
         <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>579</v>
@@ -4682,13 +4658,13 @@
         <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1146</v>
@@ -4697,18 +4673,18 @@
         <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4720,13 +4696,13 @@
         <v>12239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4735,13 +4711,13 @@
         <v>10836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4750,19 +4726,19 @@
         <v>23075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>627</v>
@@ -4771,13 +4747,13 @@
         <v>656858</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H11" s="7">
         <v>655</v>
@@ -4786,13 +4762,13 @@
         <v>650550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -4801,13 +4777,13 @@
         <v>1307408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4798,13 @@
         <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>665</v>
@@ -4837,13 +4813,13 @@
         <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1303</v>
@@ -4852,18 +4828,18 @@
         <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4875,13 +4851,13 @@
         <v>14162</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>297</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4890,13 +4866,13 @@
         <v>11824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4905,19 +4881,19 @@
         <v>25986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>570</v>
@@ -4926,13 +4902,13 @@
         <v>631886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4941,28 +4917,28 @@
         <v>637253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="M14" s="7">
         <v>1161</v>
       </c>
       <c r="N14" s="7">
-        <v>1269140</v>
+        <v>1269139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>310</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4953,13 @@
         <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -4992,33 +4968,33 @@
         <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5030,13 +5006,13 @@
         <v>25065</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5045,13 +5021,13 @@
         <v>39482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -5060,19 +5036,19 @@
         <v>64546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>403</v>
@@ -5081,13 +5057,13 @@
         <v>452853</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>398</v>
@@ -5096,13 +5072,13 @@
         <v>457367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>801</v>
@@ -5111,13 +5087,13 @@
         <v>910221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5108,13 @@
         <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>433</v>
@@ -5147,13 +5123,13 @@
         <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -5162,18 +5138,18 @@
         <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5185,13 +5161,13 @@
         <v>35340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -5200,13 +5176,13 @@
         <v>67761</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -5215,19 +5191,19 @@
         <v>103101</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>589</v>
@@ -5236,13 +5212,13 @@
         <v>555988</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -5251,13 +5227,13 @@
         <v>710170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>1188</v>
@@ -5266,13 +5242,13 @@
         <v>1266158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5263,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -5302,13 +5278,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -5317,13 +5293,13 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5316,13 @@
         <v>99770</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -5355,13 +5331,13 @@
         <v>143737</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>218</v>
@@ -5370,19 +5346,19 @@
         <v>243507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>353</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3138</v>
@@ -5391,13 +5367,13 @@
         <v>3294580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H23" s="7">
         <v>3213</v>
@@ -5406,13 +5382,13 @@
         <v>3400805</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="M23" s="7">
         <v>6351</v>
@@ -5421,13 +5397,13 @@
         <v>6695385</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>362</v>
+        <v>191</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5418,13 @@
         <v>3394350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>3338</v>
@@ -5457,13 +5433,13 @@
         <v>3544542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>6569</v>
@@ -5472,18 +5448,18 @@
         <v>6938892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -5505,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B960EC-B122-4E02-B93A-33624BC3F6B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA0BD1F-9E56-47AD-8EEA-A9E1138A77EF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5522,7 +5498,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5629,13 +5605,13 @@
         <v>3133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5644,13 +5620,13 @@
         <v>2035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5659,19 +5635,19 @@
         <v>5168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>170</v>
@@ -5680,13 +5656,13 @@
         <v>374546</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -5695,13 +5671,13 @@
         <v>352922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>362</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -5710,13 +5686,13 @@
         <v>727468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5731,13 +5707,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5746,13 +5722,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -5761,18 +5737,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5784,13 +5760,13 @@
         <v>5524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5799,13 +5775,13 @@
         <v>6073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5814,19 +5790,19 @@
         <v>11597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>297</v>
@@ -5835,13 +5811,13 @@
         <v>422872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5850,13 +5826,13 @@
         <v>492504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M8" s="7">
         <v>750</v>
@@ -5865,13 +5841,13 @@
         <v>915376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5862,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>460</v>
@@ -5901,13 +5877,13 @@
         <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -5916,18 +5892,18 @@
         <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5939,13 +5915,13 @@
         <v>10201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5954,13 +5930,13 @@
         <v>16807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>384</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5969,19 +5945,19 @@
         <v>27008</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>36</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>537</v>
@@ -5990,13 +5966,13 @@
         <v>547051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -6005,13 +5981,13 @@
         <v>566669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="M11" s="7">
         <v>1356</v>
@@ -6020,13 +5996,13 @@
         <v>1113719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>391</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6017,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -6056,13 +6032,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
@@ -6071,18 +6047,18 @@
         <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6094,13 +6070,13 @@
         <v>40548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>401</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -6109,13 +6085,13 @@
         <v>34549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>402</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -6124,19 +6100,19 @@
         <v>75097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>623</v>
@@ -6145,13 +6121,13 @@
         <v>683442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>1084</v>
@@ -6160,13 +6136,13 @@
         <v>712712</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>410</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>1707</v>
@@ -6175,13 +6151,13 @@
         <v>1396154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6172,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1141</v>
@@ -6211,13 +6187,13 @@
         <v>747261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1806</v>
@@ -6226,18 +6202,18 @@
         <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6249,13 +6225,13 @@
         <v>49483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -6264,13 +6240,13 @@
         <v>60258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>411</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -6279,19 +6255,19 @@
         <v>109741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>603</v>
@@ -6300,13 +6276,13 @@
         <v>549603</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="H17" s="7">
         <v>890</v>
@@ -6315,13 +6291,13 @@
         <v>533318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>1493</v>
@@ -6330,13 +6306,13 @@
         <v>1082921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6327,13 @@
         <v>599086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1000</v>
@@ -6366,13 +6342,13 @@
         <v>593576</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>1662</v>
@@ -6381,18 +6357,18 @@
         <v>1192662</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6404,13 +6380,13 @@
         <v>108221</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>395</v>
@@ -6419,13 +6395,13 @@
         <v>191971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -6434,19 +6410,19 @@
         <v>300191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>852</v>
@@ -6455,13 +6431,13 @@
         <v>589534</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>1311</v>
@@ -6470,13 +6446,13 @@
         <v>833400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>2163</v>
@@ -6485,13 +6461,13 @@
         <v>1422935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,13 +6482,13 @@
         <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>1706</v>
@@ -6521,13 +6497,13 @@
         <v>1025371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>2734</v>
@@ -6536,13 +6512,13 @@
         <v>1723126</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6559,13 +6535,13 @@
         <v>217109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H22" s="7">
         <v>597</v>
@@ -6574,13 +6550,13 @@
         <v>311693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>890</v>
@@ -6589,19 +6565,19 @@
         <v>528802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>454</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7">
         <v>3082</v>
@@ -6610,13 +6586,13 @@
         <v>3167049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>4763</v>
@@ -6625,13 +6601,13 @@
         <v>3491525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>7845</v>
@@ -6640,13 +6616,13 @@
         <v>6658574</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6637,13 @@
         <v>3384158</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>5360</v>
@@ -6676,13 +6652,13 @@
         <v>3803218</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M24" s="7">
         <v>8735</v>
@@ -6691,18 +6667,18 @@
         <v>7187376</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF133E0C-DB37-44D7-BE9B-9573197FB871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F52055-C7E4-4B6E-86E5-D086B28165D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60C22780-30D4-4161-99B0-CEA5FE222C87}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC98D5DA-992A-487E-857E-3513B3F0B4AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -80,1339 +80,1381 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,68%</t>
+  </si>
+  <si>
     <t>1,81%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,65%</t>
+    <t>3,39%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,58%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
   </si>
   <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>96,95%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>2,34%</t>
   </si>
   <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>93,28%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
   </si>
 </sst>
 </file>
@@ -1824,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D180D4-23BC-47D3-8417-F1771DCD8AE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87AD49C-E851-4A65-92F4-D071EE9F2C6C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,13 +2005,13 @@
         <v>8479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -1978,19 +2020,19 @@
         <v>10937</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>497</v>
@@ -1999,13 +2041,13 @@
         <v>491606</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>480</v>
@@ -2014,13 +2056,13 @@
         <v>459010</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>977</v>
@@ -2029,13 +2071,13 @@
         <v>950616</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2092,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>489</v>
@@ -2065,13 +2107,13 @@
         <v>467489</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>988</v>
@@ -2080,18 +2122,18 @@
         <v>961553</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2103,13 +2145,13 @@
         <v>12067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -2118,13 +2160,13 @@
         <v>7153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -2133,19 +2175,19 @@
         <v>19220</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>691</v>
@@ -2154,13 +2196,13 @@
         <v>723422</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>584</v>
@@ -2169,13 +2211,13 @@
         <v>618341</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>1275</v>
@@ -2184,13 +2226,13 @@
         <v>1341762</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2247,13 @@
         <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>591</v>
@@ -2220,13 +2262,13 @@
         <v>625494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1294</v>
@@ -2235,18 +2277,18 @@
         <v>1360982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2258,13 +2300,13 @@
         <v>15057</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -2273,13 +2315,13 @@
         <v>12771</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -2288,19 +2330,19 @@
         <v>27828</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>598</v>
@@ -2309,13 +2351,13 @@
         <v>622592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>645</v>
@@ -2324,13 +2366,13 @@
         <v>676973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1243</v>
@@ -2339,13 +2381,13 @@
         <v>1299566</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2402,13 @@
         <v>637649</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>658</v>
@@ -2375,13 +2417,13 @@
         <v>689744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1270</v>
@@ -2390,18 +2432,18 @@
         <v>1327394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2413,13 +2455,13 @@
         <v>13514</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -2428,13 +2470,13 @@
         <v>20904</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -2443,19 +2485,19 @@
         <v>34418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>472</v>
@@ -2464,13 +2506,13 @@
         <v>505633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>480</v>
@@ -2479,13 +2521,13 @@
         <v>494738</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>952</v>
@@ -2494,13 +2536,13 @@
         <v>1000371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,13 +2557,13 @@
         <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>502</v>
@@ -2530,13 +2572,13 @@
         <v>515642</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>986</v>
@@ -2545,18 +2587,18 @@
         <v>1034789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2568,13 +2610,13 @@
         <v>15035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -2583,13 +2625,13 @@
         <v>23317</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -2598,19 +2640,19 @@
         <v>38352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>376</v>
@@ -2619,13 +2661,13 @@
         <v>371675</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>373</v>
@@ -2634,13 +2676,13 @@
         <v>380669</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>749</v>
@@ -2649,13 +2691,13 @@
         <v>752344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2712,13 @@
         <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>396</v>
@@ -2685,13 +2727,13 @@
         <v>403986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>788</v>
@@ -2700,18 +2742,18 @@
         <v>790696</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2723,13 +2765,13 @@
         <v>28466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -2738,13 +2780,13 @@
         <v>48847</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -2753,19 +2795,19 @@
         <v>77312</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>494</v>
@@ -2774,13 +2816,13 @@
         <v>474000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="H20" s="7">
         <v>613</v>
@@ -2789,13 +2831,13 @@
         <v>627995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>1107</v>
@@ -2804,13 +2846,13 @@
         <v>1101996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,13 +2867,13 @@
         <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>661</v>
@@ -2840,13 +2882,13 @@
         <v>676842</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1184</v>
@@ -2855,13 +2897,13 @@
         <v>1179308</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2920,13 @@
         <v>86595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>122</v>
@@ -2893,13 +2935,13 @@
         <v>121472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -2908,19 +2950,19 @@
         <v>208067</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3128</v>
@@ -2929,13 +2971,13 @@
         <v>3188930</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="H23" s="7">
         <v>3175</v>
@@ -2944,28 +2986,28 @@
         <v>3257726</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>6303</v>
       </c>
       <c r="N23" s="7">
-        <v>6446656</v>
+        <v>6446655</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +3022,13 @@
         <v>3275525</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3297</v>
@@ -2995,33 +3037,33 @@
         <v>3379198</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6510</v>
       </c>
       <c r="N24" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3043,7 +3085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83748AE4-04ED-4511-BC83-BCE0BF0F364C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C09025C-F8B7-4C4E-B269-661F033812D6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3060,7 +3102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3167,13 +3209,13 @@
         <v>6566</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3182,13 +3224,13 @@
         <v>3881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3197,19 +3239,19 @@
         <v>10447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>439</v>
@@ -3218,13 +3260,13 @@
         <v>446539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3233,13 +3275,13 @@
         <v>425458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>855</v>
@@ -3248,13 +3290,13 @@
         <v>871998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3311,13 @@
         <v>453105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>420</v>
@@ -3284,13 +3326,13 @@
         <v>429339</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>865</v>
@@ -3299,18 +3341,18 @@
         <v>882445</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3322,13 +3364,13 @@
         <v>15157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3337,13 +3379,13 @@
         <v>12447</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3352,19 +3394,19 @@
         <v>27604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>652</v>
@@ -3373,13 +3415,13 @@
         <v>671081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -3388,13 +3430,13 @@
         <v>596767</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>1211</v>
@@ -3403,13 +3445,13 @@
         <v>1267847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3466,13 @@
         <v>686238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>570</v>
@@ -3439,13 +3481,13 @@
         <v>609214</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1236</v>
@@ -3454,18 +3496,18 @@
         <v>1295451</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3477,13 +3519,13 @@
         <v>17698</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3492,13 +3534,13 @@
         <v>22147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3507,19 +3549,19 @@
         <v>39845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>633</v>
@@ -3528,13 +3570,13 @@
         <v>662356</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3543,10 +3585,10 @@
         <v>683788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>176</v>
@@ -3579,13 +3621,13 @@
         <v>680054</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>663</v>
@@ -3594,13 +3636,13 @@
         <v>705935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1312</v>
@@ -3609,18 +3651,18 @@
         <v>1385989</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3674,7 +3716,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>521</v>
@@ -3734,13 +3776,13 @@
         <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>537</v>
@@ -3749,13 +3791,13 @@
         <v>614072</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1085</v>
@@ -3764,18 +3806,18 @@
         <v>1228689</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3790,10 +3832,10 @@
         <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3802,10 +3844,10 @@
         <v>33268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>201</v>
@@ -3829,7 +3871,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>378</v>
@@ -3841,10 +3883,10 @@
         <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>376</v>
@@ -3853,13 +3895,13 @@
         <v>414532</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
         <v>754</v>
@@ -3889,13 +3931,13 @@
         <v>428344</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>406</v>
@@ -3904,13 +3946,13 @@
         <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>798</v>
@@ -3919,18 +3961,18 @@
         <v>876144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3984,7 +4026,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>454</v>
@@ -4044,13 +4086,13 @@
         <v>553468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>692</v>
@@ -4059,13 +4101,13 @@
         <v>740749</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1192</v>
@@ -4074,13 +4116,13 @@
         <v>1294216</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4145,7 @@
         <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7">
         <v>174</v>
@@ -4112,13 +4154,13 @@
         <v>190095</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M22" s="7">
         <v>297</v>
@@ -4127,19 +4169,19 @@
         <v>330359</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3077</v>
@@ -4148,13 +4190,13 @@
         <v>3275561</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H23" s="7">
         <v>3114</v>
@@ -4163,13 +4205,13 @@
         <v>3357015</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M23" s="7">
         <v>6191</v>
@@ -4178,13 +4220,13 @@
         <v>6632575</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4241,13 @@
         <v>3415824</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3288</v>
@@ -4214,13 +4256,13 @@
         <v>3547110</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6488</v>
@@ -4229,18 +4271,18 @@
         <v>6962934</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4262,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CD4C65-8B3F-47E3-BB5E-18158BA52DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E10CB-B10B-4883-9421-AECFB4D88B58}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4279,7 +4321,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4386,13 +4428,13 @@
         <v>2941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4401,13 +4443,13 @@
         <v>4697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4416,19 +4458,19 @@
         <v>7638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>391</v>
@@ -4437,13 +4479,13 @@
         <v>416522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>400</v>
@@ -4452,13 +4494,13 @@
         <v>391058</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>791</v>
@@ -4467,13 +4509,13 @@
         <v>807580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4530,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>404</v>
@@ -4503,13 +4545,13 @@
         <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>797</v>
@@ -4518,18 +4560,18 @@
         <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4541,13 +4583,13 @@
         <v>10023</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4556,13 +4598,13 @@
         <v>9138</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4571,19 +4613,19 @@
         <v>19160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>558</v>
@@ -4592,13 +4634,13 @@
         <v>580473</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -4607,13 +4649,13 @@
         <v>554406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>1128</v>
@@ -4622,13 +4664,13 @@
         <v>1134880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4685,13 @@
         <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>579</v>
@@ -4658,13 +4700,13 @@
         <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1146</v>
@@ -4673,18 +4715,18 @@
         <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4696,13 +4738,13 @@
         <v>12239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4711,13 +4753,13 @@
         <v>10836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4726,19 +4768,19 @@
         <v>23075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>627</v>
@@ -4747,13 +4789,13 @@
         <v>656858</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H11" s="7">
         <v>655</v>
@@ -4762,13 +4804,13 @@
         <v>650550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -4777,13 +4819,13 @@
         <v>1307408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4840,13 @@
         <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>665</v>
@@ -4813,13 +4855,13 @@
         <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1303</v>
@@ -4828,18 +4870,18 @@
         <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4851,13 +4893,13 @@
         <v>14162</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4866,13 +4908,13 @@
         <v>11824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4881,19 +4923,19 @@
         <v>25986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>570</v>
@@ -4902,13 +4944,13 @@
         <v>631886</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4917,13 +4959,13 @@
         <v>637253</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>1161</v>
@@ -4932,7 +4974,7 @@
         <v>1269139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>303</v>
@@ -4953,13 +4995,13 @@
         <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>602</v>
@@ -4968,13 +5010,13 @@
         <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1184</v>
@@ -4983,18 +5025,18 @@
         <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5009,10 +5051,10 @@
         <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5021,13 +5063,13 @@
         <v>39482</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -5036,19 +5078,19 @@
         <v>64546</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>403</v>
@@ -5057,13 +5099,13 @@
         <v>452853</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>315</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7">
         <v>398</v>
@@ -5072,13 +5114,13 @@
         <v>457367</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M17" s="7">
         <v>801</v>
@@ -5087,13 +5129,13 @@
         <v>910221</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5150,13 @@
         <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>433</v>
@@ -5123,13 +5165,13 @@
         <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>857</v>
@@ -5138,18 +5180,18 @@
         <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5161,13 +5203,13 @@
         <v>35340</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -5176,13 +5218,13 @@
         <v>67761</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -5191,19 +5233,19 @@
         <v>103101</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>589</v>
@@ -5212,13 +5254,13 @@
         <v>555988</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>599</v>
@@ -5227,13 +5269,13 @@
         <v>710170</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>1188</v>
@@ -5242,13 +5284,13 @@
         <v>1266158</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5305,13 @@
         <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>655</v>
@@ -5278,13 +5320,13 @@
         <v>777931</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>1282</v>
@@ -5293,13 +5335,13 @@
         <v>1369259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5358,13 @@
         <v>99770</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H22" s="7">
         <v>125</v>
@@ -5331,13 +5373,13 @@
         <v>143737</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>218</v>
@@ -5346,7 +5388,7 @@
         <v>243507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>346</v>
@@ -5358,7 +5400,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3138</v>
@@ -5388,7 +5430,7 @@
         <v>352</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="M23" s="7">
         <v>6351</v>
@@ -5397,13 +5439,13 @@
         <v>6695385</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5460,13 @@
         <v>3394350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>3338</v>
@@ -5433,13 +5475,13 @@
         <v>3544542</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>6569</v>
@@ -5448,18 +5490,18 @@
         <v>6938892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5481,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA0BD1F-9E56-47AD-8EEA-A9E1138A77EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B9C61-DF4A-45EA-B890-9ABDE772261E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5498,7 +5540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5605,13 +5647,13 @@
         <v>3133</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5620,13 +5662,13 @@
         <v>2035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -5635,19 +5677,19 @@
         <v>5168</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>70</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>170</v>
@@ -5656,13 +5698,13 @@
         <v>374546</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>206</v>
@@ -5671,13 +5713,13 @@
         <v>352922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
@@ -5686,13 +5728,13 @@
         <v>727468</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5749,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>207</v>
@@ -5722,13 +5764,13 @@
         <v>354957</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>379</v>
@@ -5737,18 +5779,18 @@
         <v>732636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5760,13 +5802,13 @@
         <v>5524</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5775,13 +5817,13 @@
         <v>6073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5790,19 +5832,19 @@
         <v>11597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>297</v>
@@ -5811,13 +5853,13 @@
         <v>422872</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5826,13 +5868,13 @@
         <v>492504</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>750</v>
@@ -5841,13 +5883,13 @@
         <v>915376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5904,13 @@
         <v>428396</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>460</v>
@@ -5877,13 +5919,13 @@
         <v>498577</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>762</v>
@@ -5892,18 +5934,18 @@
         <v>926973</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5915,13 +5957,13 @@
         <v>10201</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5930,13 +5972,13 @@
         <v>16807</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>391</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5945,19 +5987,19 @@
         <v>27008</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>537</v>
@@ -5966,13 +6008,13 @@
         <v>547051</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>388</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -5981,13 +6023,13 @@
         <v>566669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>390</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1356</v>
@@ -5996,13 +6038,13 @@
         <v>1113719</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6059,13 @@
         <v>557252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>846</v>
@@ -6032,13 +6074,13 @@
         <v>583476</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>1392</v>
@@ -6047,18 +6089,18 @@
         <v>1140727</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6070,13 +6112,13 @@
         <v>40548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -6085,13 +6127,13 @@
         <v>34549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
@@ -6100,19 +6142,19 @@
         <v>75097</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>623</v>
@@ -6121,13 +6163,13 @@
         <v>683442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>411</v>
       </c>
       <c r="H14" s="7">
         <v>1084</v>
@@ -6136,28 +6178,28 @@
         <v>712712</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>412</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M14" s="7">
         <v>1707</v>
       </c>
       <c r="N14" s="7">
-        <v>1396154</v>
+        <v>1396155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6214,13 @@
         <v>723990</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1141</v>
@@ -6187,33 +6229,33 @@
         <v>747261</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6225,13 +6267,13 @@
         <v>49483</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -6240,13 +6282,13 @@
         <v>60258</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
@@ -6255,19 +6297,19 @@
         <v>109741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>603</v>
@@ -6276,13 +6318,13 @@
         <v>549603</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>890</v>
@@ -6291,13 +6333,13 @@
         <v>533318</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>1493</v>
@@ -6306,13 +6348,13 @@
         <v>1082921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6369,13 @@
         <v>599086</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1000</v>
@@ -6342,13 +6384,13 @@
         <v>593576</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>1662</v>
@@ -6357,18 +6399,18 @@
         <v>1192662</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6377,16 +6419,16 @@
         <v>176</v>
       </c>
       <c r="D19" s="7">
-        <v>108221</v>
+        <v>108220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
         <v>395</v>
@@ -6395,13 +6437,13 @@
         <v>191971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
         <v>571</v>
@@ -6410,19 +6452,19 @@
         <v>300191</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>852</v>
@@ -6431,13 +6473,13 @@
         <v>589534</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="H20" s="7">
         <v>1311</v>
@@ -6446,13 +6488,13 @@
         <v>833400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="M20" s="7">
         <v>2163</v>
@@ -6461,13 +6503,13 @@
         <v>1422935</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,16 +6521,16 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>1706</v>
@@ -6497,13 +6539,13 @@
         <v>1025371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>2734</v>
@@ -6512,13 +6554,13 @@
         <v>1723126</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6577,13 @@
         <v>217109</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>597</v>
@@ -6550,13 +6592,13 @@
         <v>311693</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>890</v>
@@ -6565,19 +6607,19 @@
         <v>528802</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>3082</v>
@@ -6586,13 +6628,13 @@
         <v>3167049</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H23" s="7">
         <v>4763</v>
@@ -6601,28 +6643,28 @@
         <v>3491525</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M23" s="7">
         <v>7845</v>
       </c>
       <c r="N23" s="7">
-        <v>6658574</v>
+        <v>6658573</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>469</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6679,13 @@
         <v>3384158</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>5360</v>
@@ -6652,33 +6694,33 @@
         <v>3803218</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>8735</v>
       </c>
       <c r="N24" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F52055-C7E4-4B6E-86E5-D086B28165D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77AF228A-A66B-43D7-9084-04AD5DC1AF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC98D5DA-992A-487E-857E-3513B3F0B4AB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5BD53536-E6D9-41E4-90EB-AC9D9BE3BFDE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="531">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,64%</t>
@@ -185,7 +185,7 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -242,7 +242,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,6%</t>
@@ -293,7 +293,7 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>3,89%</t>
@@ -350,55 +350,118 @@
     <t>96,54%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>2,64%</t>
@@ -677,784 +740,898 @@
     <t>96,05%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
   </si>
 </sst>
 </file>
@@ -1866,8 +2043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87AD49C-E851-4A65-92F4-D071EE9F2C6C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E248468C-0EDC-4DB0-9E2A-DB6E274E3155}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2759,49 +2936,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>28466</v>
+        <v>12486</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I19" s="7">
-        <v>48847</v>
+        <v>25619</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N19" s="7">
-        <v>77312</v>
+        <v>38105</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,49 +2987,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>494</v>
+        <v>291</v>
       </c>
       <c r="D20" s="7">
-        <v>474000</v>
+        <v>280097</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>613</v>
+        <v>343</v>
       </c>
       <c r="I20" s="7">
-        <v>627995</v>
+        <v>317315</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>1107</v>
+        <v>634</v>
       </c>
       <c r="N20" s="7">
-        <v>1101996</v>
+        <v>597412</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2876,10 +3053,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2891,10 +3068,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2908,55 +3085,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7">
-        <v>86595</v>
+        <v>15980</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>121472</v>
+        <v>23227</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="N22" s="7">
-        <v>208067</v>
+        <v>39207</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,49 +3142,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3128</v>
+        <v>203</v>
       </c>
       <c r="D23" s="7">
-        <v>3188930</v>
+        <v>193903</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>3175</v>
+        <v>270</v>
       </c>
       <c r="I23" s="7">
-        <v>3257726</v>
+        <v>310681</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>6303</v>
+        <v>473</v>
       </c>
       <c r="N23" s="7">
-        <v>6446655</v>
+        <v>504584</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,63 +3193,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>85</v>
+      </c>
+      <c r="D25" s="7">
+        <v>86595</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
+        <v>122</v>
+      </c>
+      <c r="I25" s="7">
+        <v>121472</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="7">
+        <v>207</v>
+      </c>
+      <c r="N25" s="7">
+        <v>208067</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3128</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3188930</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3175</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3257725</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6303</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6446655</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3213</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3275525</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6510</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6654722</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3085,8 +3418,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C09025C-F8B7-4C4E-B269-661F033812D6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E878D61-4056-402D-93F8-9674F77488BA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3102,7 +3435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3209,13 +3542,13 @@
         <v>6566</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3224,13 +3557,13 @@
         <v>3881</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3239,13 +3572,13 @@
         <v>10447</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3593,13 @@
         <v>446539</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
         <v>416</v>
@@ -3275,13 +3608,13 @@
         <v>425458</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>855</v>
@@ -3290,13 +3623,13 @@
         <v>871998</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3697,13 @@
         <v>15157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3382,10 +3715,10 @@
         <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3394,13 +3727,13 @@
         <v>27604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3748,13 @@
         <v>671081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>559</v>
@@ -3433,10 +3766,10 @@
         <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>1211</v>
@@ -3445,13 +3778,13 @@
         <v>1267847</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,10 +3855,10 @@
         <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -3534,10 +3867,10 @@
         <v>22147</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>91</v>
@@ -3549,13 +3882,13 @@
         <v>39845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,10 +3906,10 @@
         <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>642</v>
@@ -3585,13 +3918,13 @@
         <v>683788</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
         <v>1275</v>
@@ -3600,13 +3933,13 @@
         <v>1346144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +4007,13 @@
         <v>31739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3689,13 +4022,13 @@
         <v>37718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -3704,13 +4037,13 @@
         <v>69457</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +4058,13 @@
         <v>582878</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>505</v>
@@ -3740,13 +4073,13 @@
         <v>576354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>1026</v>
@@ -3755,13 +4088,13 @@
         <v>1159232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +4162,13 @@
         <v>14673</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -3844,13 +4177,13 @@
         <v>33268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -3859,13 +4192,13 @@
         <v>47941</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +4213,13 @@
         <v>413671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>376</v>
@@ -3895,13 +4228,13 @@
         <v>414532</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>754</v>
@@ -3910,13 +4243,13 @@
         <v>828203</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,49 +4311,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>54431</v>
+        <v>22402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="H19" s="7">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>80634</v>
+        <v>38965</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="M19" s="7">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="N19" s="7">
-        <v>135065</v>
+        <v>61367</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +4362,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>454</v>
+        <v>261</v>
       </c>
       <c r="D20" s="7">
-        <v>499037</v>
+        <v>282030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
-        <v>616</v>
+        <v>305</v>
       </c>
       <c r="I20" s="7">
-        <v>660115</v>
+        <v>315031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
-        <v>1070</v>
+        <v>566</v>
       </c>
       <c r="N20" s="7">
-        <v>1159151</v>
+        <v>597061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4413,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="D21" s="7">
-        <v>553468</v>
+        <v>304432</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4428,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>692</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>740749</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4443,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1192</v>
+        <v>623</v>
       </c>
       <c r="N21" s="7">
-        <v>1294216</v>
+        <v>658428</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4127,55 +4460,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>140263</v>
+        <v>32029</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>91</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="I22" s="7">
-        <v>190095</v>
+        <v>41668</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
-        <v>297</v>
+        <v>65</v>
       </c>
       <c r="N22" s="7">
-        <v>330359</v>
+        <v>73697</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4517,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3077</v>
+        <v>193</v>
       </c>
       <c r="D23" s="7">
-        <v>3275561</v>
+        <v>217007</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="H23" s="7">
-        <v>3114</v>
+        <v>311</v>
       </c>
       <c r="I23" s="7">
-        <v>3357015</v>
+        <v>345085</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M23" s="7">
-        <v>6191</v>
+        <v>504</v>
       </c>
       <c r="N23" s="7">
-        <v>6632575</v>
+        <v>562092</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,63 +4568,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>221</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249036</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>348</v>
+      </c>
+      <c r="I24" s="7">
+        <v>386753</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>569</v>
+      </c>
+      <c r="N24" s="7">
+        <v>635789</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>123</v>
+      </c>
+      <c r="D25" s="7">
+        <v>140263</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="7">
+        <v>174</v>
+      </c>
+      <c r="I25" s="7">
+        <v>190095</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="M25" s="7">
+        <v>297</v>
+      </c>
+      <c r="N25" s="7">
+        <v>330359</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3077</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3275562</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3114</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3357015</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6191</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6632575</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3200</v>
       </c>
-      <c r="D24" s="7">
-        <v>3415824</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3415825</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3288</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3547110</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6488</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6962934</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4304,8 +4793,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1E10CB-B10B-4883-9421-AECFB4D88B58}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534F3F59-0883-467D-9F47-B8AA6A642886}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4321,7 +4810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4428,13 +4917,13 @@
         <v>2941</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -4443,13 +4932,13 @@
         <v>4697</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4458,13 +4947,13 @@
         <v>7638</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,10 +4968,10 @@
         <v>416522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4494,13 +4983,13 @@
         <v>391058</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>791</v>
@@ -4509,13 +4998,13 @@
         <v>807580</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +5072,13 @@
         <v>10023</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4598,13 +5087,13 @@
         <v>9138</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4613,13 +5102,13 @@
         <v>19160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +5123,13 @@
         <v>580473</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -4649,13 +5138,13 @@
         <v>554406</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>1128</v>
@@ -4664,13 +5153,13 @@
         <v>1134880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +5227,13 @@
         <v>12239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4756,10 +5245,10 @@
         <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -4768,10 +5257,10 @@
         <v>23075</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>68</v>
@@ -4789,13 +5278,13 @@
         <v>656858</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>655</v>
@@ -4807,10 +5296,10 @@
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -4819,13 +5308,13 @@
         <v>1307408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +5382,13 @@
         <v>14162</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4908,13 +5397,13 @@
         <v>11824</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4923,13 +5412,13 @@
         <v>25986</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +5433,13 @@
         <v>631886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>591</v>
@@ -4959,13 +5448,13 @@
         <v>637253</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>1161</v>
@@ -4974,13 +5463,13 @@
         <v>1269139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5537,13 @@
         <v>25065</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -5063,13 +5552,13 @@
         <v>39482</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -5078,13 +5567,13 @@
         <v>64546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5588,13 @@
         <v>452853</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>398</v>
@@ -5114,13 +5603,13 @@
         <v>457367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M17" s="7">
         <v>801</v>
@@ -5129,13 +5618,13 @@
         <v>910221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,49 +5686,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7">
-        <v>35340</v>
+        <v>17101</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>67761</v>
+        <v>24059</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="N19" s="7">
-        <v>103101</v>
+        <v>41160</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,49 +5737,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>589</v>
+        <v>308</v>
       </c>
       <c r="D20" s="7">
-        <v>555988</v>
+        <v>317229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H20" s="7">
         <v>331</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H20" s="7">
-        <v>599</v>
-      </c>
       <c r="I20" s="7">
-        <v>710170</v>
+        <v>353703</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
-        <v>1188</v>
+        <v>639</v>
       </c>
       <c r="N20" s="7">
-        <v>1266158</v>
+        <v>670932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,10 +5788,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5314,10 +5803,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5329,10 +5818,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5346,55 +5835,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>99770</v>
+        <v>18239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="H22" s="7">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>143737</v>
+        <v>43702</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="M22" s="7">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>243507</v>
+        <v>61941</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,49 +5892,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3138</v>
+        <v>281</v>
       </c>
       <c r="D23" s="7">
-        <v>3294580</v>
+        <v>238759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="H23" s="7">
-        <v>3213</v>
+        <v>268</v>
       </c>
       <c r="I23" s="7">
-        <v>3400805</v>
+        <v>356467</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="M23" s="7">
-        <v>6351</v>
+        <v>549</v>
       </c>
       <c r="N23" s="7">
-        <v>6695385</v>
+        <v>595226</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,63 +5943,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>93</v>
+      </c>
+      <c r="D25" s="7">
+        <v>99770</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H25" s="7">
+        <v>125</v>
+      </c>
+      <c r="I25" s="7">
+        <v>143737</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="M25" s="7">
+        <v>218</v>
+      </c>
+      <c r="N25" s="7">
+        <v>243507</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3138</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3294580</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3213</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3400805</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6351</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6695385</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5523,8 +6168,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49B9C61-DF4A-45EA-B890-9ABDE772261E}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA711258-8698-4DA8-9328-2ED37DB0270D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5540,7 +6185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5644,46 +6289,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>3133</v>
+        <v>5952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>415</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>416</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2035</v>
+        <v>1632</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>5168</v>
+        <v>7584</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +6340,13 @@
         <v>170</v>
       </c>
       <c r="D5" s="7">
-        <v>374546</v>
+        <v>394035</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -5710,13 +6355,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>352922</v>
+        <v>311568</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -5725,16 +6370,16 @@
         <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>727468</v>
+        <v>705603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,7 +6391,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5761,7 +6406,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5776,7 +6421,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5799,46 +6444,46 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>5524</v>
+        <v>5400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>6073</v>
+        <v>5601</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>11597</v>
+        <v>11000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>378</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,46 +6495,46 @@
         <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>422872</v>
+        <v>418147</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
       </c>
       <c r="I8" s="7">
-        <v>492504</v>
+        <v>505903</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="M8" s="7">
         <v>750</v>
       </c>
       <c r="N8" s="7">
-        <v>915376</v>
+        <v>924051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,7 +6546,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5916,7 +6561,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5931,7 +6576,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5954,46 +6599,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>10201</v>
+        <v>9962</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>16807</v>
+        <v>15879</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>27008</v>
+        <v>25841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>393</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,46 +6650,46 @@
         <v>537</v>
       </c>
       <c r="D11" s="7">
-        <v>547051</v>
+        <v>526376</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>447</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
       </c>
       <c r="I11" s="7">
-        <v>566669</v>
+        <v>526589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>395</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>396</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>449</v>
       </c>
       <c r="M11" s="7">
         <v>1356</v>
       </c>
       <c r="N11" s="7">
-        <v>1113719</v>
+        <v>1052965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,7 +6701,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6071,7 +6716,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6086,7 +6731,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6109,46 +6754,46 @@
         <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>40548</v>
+        <v>38700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>34549</v>
+        <v>32138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="M13" s="7">
         <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>75097</v>
+        <v>70838</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>408</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,46 +6805,46 @@
         <v>623</v>
       </c>
       <c r="D14" s="7">
-        <v>683442</v>
+        <v>849086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>409</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>1084</v>
       </c>
       <c r="I14" s="7">
-        <v>712712</v>
+        <v>680743</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>412</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="M14" s="7">
         <v>1707</v>
       </c>
       <c r="N14" s="7">
-        <v>1396155</v>
+        <v>1529829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,7 +6856,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6226,7 +6871,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6241,7 +6886,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6264,46 +6909,46 @@
         <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>49483</v>
+        <v>46698</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>60258</v>
+        <v>55652</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
       </c>
       <c r="N16" s="7">
-        <v>109741</v>
+        <v>102350</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,46 +6960,46 @@
         <v>603</v>
       </c>
       <c r="D17" s="7">
-        <v>549603</v>
+        <v>513539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="H17" s="7">
         <v>890</v>
       </c>
       <c r="I17" s="7">
-        <v>533318</v>
+        <v>489235</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
       <c r="M17" s="7">
         <v>1493</v>
       </c>
       <c r="N17" s="7">
-        <v>1082921</v>
+        <v>1002774</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,7 +7011,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6381,7 +7026,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6396,7 +7041,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6416,49 +7061,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7">
-        <v>108220</v>
+        <v>44897</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="H19" s="7">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="I19" s="7">
-        <v>191971</v>
+        <v>61425</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="M19" s="7">
-        <v>571</v>
+        <v>209</v>
       </c>
       <c r="N19" s="7">
-        <v>300191</v>
+        <v>106322</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6467,49 +7112,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>852</v>
+        <v>494</v>
       </c>
       <c r="D20" s="7">
-        <v>589534</v>
+        <v>323268</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="H20" s="7">
-        <v>1311</v>
+        <v>694</v>
       </c>
       <c r="I20" s="7">
-        <v>833400</v>
+        <v>546943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="M20" s="7">
-        <v>2163</v>
+        <v>1188</v>
       </c>
       <c r="N20" s="7">
-        <v>1422935</v>
+        <v>870211</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,10 +7163,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6533,10 +7178,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025371</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6548,10 +7193,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723126</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6565,55 +7210,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>293</v>
+        <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>217109</v>
+        <v>56517</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="H22" s="7">
-        <v>597</v>
+        <v>262</v>
       </c>
       <c r="I22" s="7">
-        <v>311693</v>
+        <v>114184</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="M22" s="7">
-        <v>890</v>
+        <v>362</v>
       </c>
       <c r="N22" s="7">
-        <v>528802</v>
+        <v>170701</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,49 +7267,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3082</v>
+        <v>358</v>
       </c>
       <c r="D23" s="7">
-        <v>3167049</v>
+        <v>226242</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="H23" s="7">
-        <v>4763</v>
+        <v>617</v>
       </c>
       <c r="I23" s="7">
-        <v>3491525</v>
+        <v>310541</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="M23" s="7">
-        <v>7845</v>
+        <v>975</v>
       </c>
       <c r="N23" s="7">
-        <v>6658573</v>
+        <v>536783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,63 +7318,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707484</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>293</v>
+      </c>
+      <c r="D25" s="7">
+        <v>208125</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H25" s="7">
+        <v>597</v>
+      </c>
+      <c r="I25" s="7">
+        <v>286511</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="M25" s="7">
+        <v>890</v>
+      </c>
+      <c r="N25" s="7">
+        <v>494636</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3082</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3250695</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4763</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3371522</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7845</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6622217</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458820</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5360</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658033</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8735</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187375</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="N27" s="7">
+        <v>7116853</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
